--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl13-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl13-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Cxcl13</t>
+  </si>
+  <si>
+    <t>Ccr10</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Cxcl13</t>
-  </si>
-  <si>
-    <t>Ccr10</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,40 +537,40 @@
         <v>12.029543</v>
       </c>
       <c r="I2">
-        <v>0.9697248931871538</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9697248931871538</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5010136666666667</v>
+        <v>1.238415</v>
       </c>
       <c r="N2">
-        <v>1.503041</v>
+        <v>3.715245</v>
       </c>
       <c r="O2">
-        <v>0.237333180484197</v>
+        <v>0.4359607654144799</v>
       </c>
       <c r="P2">
-        <v>0.237333180484197</v>
+        <v>0.4359607654144798</v>
       </c>
       <c r="Q2">
-        <v>2.008988482251445</v>
+        <v>4.965855498115</v>
       </c>
       <c r="R2">
-        <v>18.080896340263</v>
+        <v>44.69269948303501</v>
       </c>
       <c r="S2">
-        <v>0.2301478930948055</v>
+        <v>0.4359607654144799</v>
       </c>
       <c r="T2">
-        <v>0.2301478930948054</v>
+        <v>0.4359607654144798</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,288 +599,40 @@
         <v>12.029543</v>
       </c>
       <c r="I3">
-        <v>0.9697248931871538</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9697248931871538</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1.238415</v>
+        <v>1.602242</v>
       </c>
       <c r="N3">
-        <v>3.715245</v>
+        <v>4.806725999999999</v>
       </c>
       <c r="O3">
-        <v>0.5866446172313401</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="P3">
-        <v>0.58664461723134</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="Q3">
-        <v>4.965855498115</v>
+        <v>6.424746345135332</v>
       </c>
       <c r="R3">
-        <v>44.69269948303501</v>
+        <v>57.82271710621799</v>
       </c>
       <c r="S3">
-        <v>0.5688838887834801</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="T3">
-        <v>0.56888388878348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>4.009847666666666</v>
-      </c>
-      <c r="H4">
-        <v>12.029543</v>
-      </c>
-      <c r="I4">
-        <v>0.9697248931871538</v>
-      </c>
-      <c r="J4">
-        <v>0.9697248931871538</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.3715853333333333</v>
-      </c>
-      <c r="N4">
-        <v>1.114756</v>
-      </c>
-      <c r="O4">
-        <v>0.1760222022844629</v>
-      </c>
-      <c r="P4">
-        <v>0.1760222022844629</v>
-      </c>
-      <c r="Q4">
-        <v>1.490000581834222</v>
-      </c>
-      <c r="R4">
-        <v>13.410005236508</v>
-      </c>
-      <c r="S4">
-        <v>0.1706931113088684</v>
-      </c>
-      <c r="T4">
-        <v>0.1706931113088684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1251886666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.375566</v>
-      </c>
-      <c r="I5">
-        <v>0.03027510681284623</v>
-      </c>
-      <c r="J5">
-        <v>0.03027510681284622</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.5010136666666667</v>
-      </c>
-      <c r="N5">
-        <v>1.503041</v>
-      </c>
-      <c r="O5">
-        <v>0.237333180484197</v>
-      </c>
-      <c r="P5">
-        <v>0.237333180484197</v>
-      </c>
-      <c r="Q5">
-        <v>0.06272123291177778</v>
-      </c>
-      <c r="R5">
-        <v>0.564491096206</v>
-      </c>
-      <c r="S5">
-        <v>0.007185287389391577</v>
-      </c>
-      <c r="T5">
-        <v>0.007185287389391575</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1251886666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.375566</v>
-      </c>
-      <c r="I6">
-        <v>0.03027510681284623</v>
-      </c>
-      <c r="J6">
-        <v>0.03027510681284622</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>1.238415</v>
-      </c>
-      <c r="N6">
-        <v>3.715245</v>
-      </c>
-      <c r="O6">
-        <v>0.5866446172313401</v>
-      </c>
-      <c r="P6">
-        <v>0.58664461723134</v>
-      </c>
-      <c r="Q6">
-        <v>0.15503552263</v>
-      </c>
-      <c r="R6">
-        <v>1.39531970367</v>
-      </c>
-      <c r="S6">
-        <v>0.01776072844786011</v>
-      </c>
-      <c r="T6">
-        <v>0.01776072844786011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.1251886666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.375566</v>
-      </c>
-      <c r="I7">
-        <v>0.03027510681284623</v>
-      </c>
-      <c r="J7">
-        <v>0.03027510681284622</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.3715853333333333</v>
-      </c>
-      <c r="N7">
-        <v>1.114756</v>
-      </c>
-      <c r="O7">
-        <v>0.1760222022844629</v>
-      </c>
-      <c r="P7">
-        <v>0.1760222022844629</v>
-      </c>
-      <c r="Q7">
-        <v>0.04651827243288888</v>
-      </c>
-      <c r="R7">
-        <v>0.4186644518959999</v>
-      </c>
-      <c r="S7">
-        <v>0.005329090975594541</v>
-      </c>
-      <c r="T7">
-        <v>0.00532909097559454</v>
+        <v>0.5640392345855201</v>
       </c>
     </row>
   </sheetData>
